--- a/DEMO/org.openl.rules.demo/data/openl-demo/user-workspace/DEFAULT/Example 1 - Bank Rating/Bank Rating.xlsx
+++ b/DEMO/org.openl.rules.demo/data/openl-demo/user-workspace/DEFAULT/Example 1 - Bank Rating/Bank Rating.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\openl-demo-app-5.23.3\apache-tomcat-9.0.30\openl-demo\user-workspace\DEFAULT\Example 1 - Bank Rating\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DE0B5-D7A1-4044-9300-E304945E0BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4920" windowWidth="14895" windowHeight="3180" tabRatio="878"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Algorithm" sheetId="18" r:id="rId1"/>
@@ -1686,35 +1692,17 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>DowngradesOfBankRatingScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <sz val="14"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BankRatingCalculation</t>
     </r>
     <r>
       <rPr>
@@ -1724,139 +1712,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(boolean downgradesOfBankRating)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>BankRatingCalculation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
       <t xml:space="preserve"> (Bank bank)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Spreadsheet DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>BankQualitativeIndexCalculation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Bank bank)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Spreadsheet DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>IsAdequateNormativeIndexCalculation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Bank bank)</t>
     </r>
   </si>
   <si>
@@ -2693,6 +2549,102 @@
     <t>= BalanceDynamicIndexCalculation(currentFinancialData, previousFinancialData)</t>
   </si>
   <si>
+    <t>= currentFinancialData.capital / previousFinancialData.capital * 100</t>
+  </si>
+  <si>
+    <t>= currentFinancialData.claimsOnDemand * previousFinancialData.liabilitiesOnDemand / (previousFinancialData.claimsOnDemand * currentFinancialData.liabilitiesOnDemand) * 100</t>
+  </si>
+  <si>
+    <t>= currentFinancialData.claimsUpTo3Months * previousFinancialData.liabilities / (previousFinancialData.claimsUpTo3Months * currentFinancialData.liabilities) * 100</t>
+  </si>
+  <si>
+    <t>= currentFinancialData.consolidatedProfit / previousFinancialData.consolidatedProfit * 100</t>
+  </si>
+  <si>
+    <t>= currentFinancialData.liabilitiesToCustomers / previousFinancialData.liabilitiesToCustomers * 100</t>
+  </si>
+  <si>
+    <t>= EquityScore(countryCode, currentFinancialData.equity)</t>
+  </si>
+  <si>
+    <t>&gt; bankFinancialData</t>
+  </si>
+  <si>
+    <t>Bank Full Name</t>
+  </si>
+  <si>
+    <t>Bank Ratings</t>
+  </si>
+  <si>
+    <t>Current Financial Data</t>
+  </si>
+  <si>
+    <t>Previous Financial Data</t>
+  </si>
+  <si>
+    <t>Quality Indicators</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Claims on Demand</t>
+  </si>
+  <si>
+    <t>Claims up to 3Months</t>
+  </si>
+  <si>
+    <t>Claims Secured by Property Charges</t>
+  </si>
+  <si>
+    <t>Claims on Banks</t>
+  </si>
+  <si>
+    <t>Claims on Customers</t>
+  </si>
+  <si>
+    <t>NegativeHistoryRelations</t>
+  </si>
+  <si>
+    <t>NegativeMassMedia</t>
+  </si>
+  <si>
+    <t>NegativeInfoShareHoldersOrManagement</t>
+  </si>
+  <si>
+    <t>DowngradesOfBankRating</t>
+  </si>
+  <si>
+    <t>LoanLossProvisionsForClaimsOnCustomers</t>
+  </si>
+  <si>
+    <t>Other Assets</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Liabilities to Banks</t>
+  </si>
+  <si>
+    <t>Liabilities to Customers</t>
+  </si>
+  <si>
+    <t>Liabilities on Demand</t>
+  </si>
+  <si>
+    <t>Liabilities to Customers on Demand</t>
+  </si>
+  <si>
+    <t>Consolidated Profit</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2701,16 +2653,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Spreadsheet DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
     </r>
     <r>
       <rPr>
@@ -2720,16 +2663,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>BalanceDynamicIndexCalculation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>BalanceQualityIndexCalculation</t>
     </r>
     <r>
       <rPr>
@@ -2739,104 +2673,159 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(FinancialData currentFinancialData, FinancialData previousFinancialData)</t>
-    </r>
-  </si>
-  <si>
-    <t>= currentFinancialData.capital / previousFinancialData.capital * 100</t>
-  </si>
-  <si>
-    <t>= currentFinancialData.claimsOnDemand * previousFinancialData.liabilitiesOnDemand / (previousFinancialData.claimsOnDemand * currentFinancialData.liabilitiesOnDemand) * 100</t>
-  </si>
-  <si>
-    <t>= currentFinancialData.claimsUpTo3Months * previousFinancialData.liabilities / (previousFinancialData.claimsUpTo3Months * currentFinancialData.liabilities) * 100</t>
-  </si>
-  <si>
-    <t>= currentFinancialData.consolidatedProfit / previousFinancialData.consolidatedProfit * 100</t>
-  </si>
-  <si>
-    <t>= currentFinancialData.liabilitiesToCustomers / previousFinancialData.liabilitiesToCustomers * 100</t>
-  </si>
-  <si>
-    <t>= EquityScore(countryCode, currentFinancialData.equity)</t>
-  </si>
-  <si>
-    <t>&gt; bankFinancialData</t>
-  </si>
-  <si>
-    <t>Bank Full Name</t>
-  </si>
-  <si>
-    <t>Bank Ratings</t>
-  </si>
-  <si>
-    <t>Current Financial Data</t>
-  </si>
-  <si>
-    <t>Previous Financial Data</t>
-  </si>
-  <si>
-    <t>Quality Indicators</t>
-  </si>
-  <si>
-    <t>Report Date</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Claims on Demand</t>
-  </si>
-  <si>
-    <t>Claims up to 3Months</t>
-  </si>
-  <si>
-    <t>Claims Secured by Property Charges</t>
-  </si>
-  <si>
-    <t>Claims on Banks</t>
-  </si>
-  <si>
-    <t>Claims on Customers</t>
-  </si>
-  <si>
-    <t>NegativeHistoryRelations</t>
-  </si>
-  <si>
-    <t>NegativeMassMedia</t>
-  </si>
-  <si>
-    <t>NegativeInfoShareHoldersOrManagement</t>
-  </si>
-  <si>
-    <t>DowngradesOfBankRating</t>
-  </si>
-  <si>
-    <t>LoanLossProvisionsForClaimsOnCustomers</t>
-  </si>
-  <si>
-    <t>Other Assets</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
-    <t>Liabilities to Banks</t>
-  </si>
-  <si>
-    <t>Liabilities to Customers</t>
-  </si>
-  <si>
-    <t>Liabilities on Demand</t>
-  </si>
-  <si>
-    <t>Liabilities to Customers on Demand</t>
-  </si>
-  <si>
-    <t>Consolidated Profit</t>
+      <t xml:space="preserve"> (FinancialData currentFinancialData)</t>
+    </r>
+  </si>
+  <si>
+    <t>Use the following tables to determine scores of 10 finantial indicators (Q1, Q2, …, Q10) applied for calculating the Balance Quality Index B.  The scores are to assess the quality of the bank-counterparty's balance sheet.</t>
+  </si>
+  <si>
+    <t>Use the following tables to determine scores of dynamic factors (D1, D2, …, D5) applied for calculating the first correction index B1 (Balance Dynamic Index). The scores are to assess dynamic performance of capital, liquidity, profit and liabilities to customers.</t>
+  </si>
+  <si>
+    <t>Use the following tables to determine scores of qualitative factors (I1, I2, …, I6) applied for calculating the second correction index B2 (Bank Qualitative Index). The scores are to assess reputation of the bank.</t>
+  </si>
+  <si>
+    <t>Use the following tables to determine scores of qualitative factors (N1, N2, N3, N4) applied for calculating the third correction index B3 (IsAdequate Normative Index). The scores are to assess  the abidance of requirements established by the central bank.</t>
+  </si>
+  <si>
+    <t>= TotalBalanceScore(currentFinancialData.totalAssets, countryCode)</t>
+  </si>
+  <si>
+    <t>= ProfitDynamicScore($ProfitDynamic, currentFinancialData.consolidatedProfit)</t>
+  </si>
+  <si>
+    <t>Tests for "Rating Groups"</t>
+  </si>
+  <si>
+    <t>Test  BankRatingCalculation BankRatingTest</t>
+  </si>
+  <si>
+    <t>Test BalanceQualityIndexCalculation QualityIndexTest</t>
+  </si>
+  <si>
+    <t>Test BalanceDynamicIndexCalculation DynamicIndexTest</t>
+  </si>
+  <si>
+    <t>Test BankQualitativeIndexCalculation QualitativeIndexTest</t>
+  </si>
+  <si>
+    <t>Test  IsAdequateNormativeIndexCalculation IsAdequateNormativeIndexTest</t>
+  </si>
+  <si>
+    <t>Test  CapitalAdequacyScore CapitalAdequacyScoreTest</t>
+  </si>
+  <si>
+    <t>Test  ProfitDynamicScore ProfitDynamicScoreTest</t>
+  </si>
+  <si>
+    <t>Test  LossesInThisYearScore LossesInThisYearScoreTest</t>
+  </si>
+  <si>
+    <t>Test  TotalBalanceScore TotalBalanceScoreTest</t>
+  </si>
+  <si>
+    <t>Test   IsAdequateMaxCreditRiskScore  IsAdequateMaxCreditRiskScoreTest</t>
+  </si>
+  <si>
+    <t>Test   EquityScore EquityScoreTest</t>
+  </si>
+  <si>
+    <t>Test  BankRatingGroup BankRatingGroupTest</t>
+  </si>
+  <si>
+    <t>Test BankLimitIndex BankLimitIndexTest</t>
+  </si>
+  <si>
+    <t>Test  SetNonZeroValues SetNonZeroValuesTest</t>
+  </si>
+  <si>
+    <t>Tests for "Limit"</t>
+  </si>
+  <si>
+    <t>Tests for "Set NonZero Values"</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>CheckCurrentFinancialData</t>
+  </si>
+  <si>
+    <t>CheckPreviousPeriodFinancialData</t>
+  </si>
+  <si>
+    <t>BalanceQualityIndexCalculation</t>
+  </si>
+  <si>
+    <t>BankRatingGroup</t>
+  </si>
+  <si>
+    <t>= round( $BalanceQualityIndexCalculation.$Value$BalanceQualityIndex * $BalanceDynamicIndexCalculation * $BankQualitativeIndexCalculation * $IsAdequateNormativeIndexCalculation, 2)</t>
+  </si>
+  <si>
+    <t>= $LimitIndex * MaxLimit()</t>
+  </si>
+  <si>
+    <t>contains(ratingArray, bankRatings[select first having ratingAgency == agency].rating)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Datatype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>LongTermRating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>LongTermRating[] ratingArray</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Datatype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>RatingGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;String&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>RatingGroup[]</t>
   </si>
   <si>
     <r>
@@ -2847,7 +2836,16 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
+      <t>Spreadsheet Double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2857,7 +2855,16 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>BalanceQualityIndexCalculation</t>
+      <t>BalanceDynamicIndexCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2867,20 +2874,8 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (FinancialData currentFinancialData)</t>
-    </r>
-  </si>
-  <si>
-    <t>Use the following tables to determine scores of 10 finantial indicators (Q1, Q2, …, Q10) applied for calculating the Balance Quality Index B.  The scores are to assess the quality of the bank-counterparty's balance sheet.</t>
-  </si>
-  <si>
-    <t>Use the following tables to determine scores of dynamic factors (D1, D2, …, D5) applied for calculating the first correction index B1 (Balance Dynamic Index). The scores are to assess dynamic performance of capital, liquidity, profit and liabilities to customers.</t>
-  </si>
-  <si>
-    <t>Use the following tables to determine scores of qualitative factors (I1, I2, …, I6) applied for calculating the second correction index B2 (Bank Qualitative Index). The scores are to assess reputation of the bank.</t>
-  </si>
-  <si>
-    <t>Use the following tables to determine scores of qualitative factors (N1, N2, N3, N4) applied for calculating the third correction index B3 (IsAdequate Normative Index). The scores are to assess  the abidance of requirements established by the central bank.</t>
+      <t>(FinancialData currentFinancialData, FinancialData previousFinancialData)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2891,7 +2886,107 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t>Spreadsheet Double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BankQualitativeIndexCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Bank bank)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Spreadsheet Double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>IsAdequateNormativeIndexCalculation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(Bank bank)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -2911,7 +3006,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue capitalAdequacy)</t>
+      <t>(Double capitalAdequacy)</t>
     </r>
   </si>
   <si>
@@ -2923,7 +3018,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -2963,7 +3058,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue claimsOnCustomerRatio)</t>
+      <t>(Double claimsOnCustomerRatio)</t>
     </r>
   </si>
   <si>
@@ -2975,7 +3070,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3006,7 +3101,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue creditPortfolioQuality)</t>
+      <t>(Double creditPortfolioQuality)</t>
     </r>
   </si>
   <si>
@@ -3018,7 +3113,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3047,7 +3142,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue securedClaimsRatio)</t>
+      <t>(Double securedClaimsRatio)</t>
     </r>
   </si>
   <si>
@@ -3059,7 +3154,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3099,7 +3194,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue quickRatio)</t>
+      <t>(Double quickRatio)</t>
     </r>
   </si>
   <si>
@@ -3111,7 +3206,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3153,7 +3248,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue liquidityRatio)</t>
+      <t>(Double liquidityRatio)</t>
     </r>
   </si>
   <si>
@@ -3165,7 +3260,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3185,7 +3280,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue highLiquidityRatio)</t>
+      <t xml:space="preserve"> (Double highLiquidityRatio)</t>
     </r>
   </si>
   <si>
@@ -3197,7 +3292,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3226,7 +3321,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue  netMoneyMarketLiabilities)</t>
+      <t xml:space="preserve"> (Double  netMoneyMarketLiabilities)</t>
     </r>
   </si>
   <si>
@@ -3238,7 +3333,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3269,7 +3364,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue liabilitiesToCustOnDemand)</t>
+      <t>(Double liabilitiesToCustOnDemand)</t>
     </r>
   </si>
   <si>
@@ -3281,7 +3376,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3321,7 +3416,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue otherAssetsRatio)</t>
+      <t>(Double otherAssetsRatio)</t>
     </r>
   </si>
   <si>
@@ -3336,7 +3431,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Rules DoubleValue </t>
+      <t xml:space="preserve">Rules Double </t>
     </r>
     <r>
       <rPr>
@@ -3356,12 +3451,12 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue capitalDynamic)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t xml:space="preserve"> (Double capitalDynamic)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SimpleRules Double </t>
     </r>
     <r>
       <rPr>
@@ -3391,12 +3486,22 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue liquidityDynamic)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Simple</t>
+      <t>(Double liquidityDynamic)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ProfitDynamicScore</t>
     </r>
     <r>
       <rPr>
@@ -3406,7 +3511,22 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Rules DoubleValue</t>
+      <t xml:space="preserve"> (Double profitDynamic, Double profit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Simple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Rules Double</t>
     </r>
     <r>
       <rPr>
@@ -3426,10 +3546,23 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(DoubleValue LiabToCustDynamic)</t>
-    </r>
-  </si>
-  <si>
+      <t>(Double LiabToCustDynamic)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SimpleRules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>LossesInThisYearScore</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3438,7 +3571,19 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t xml:space="preserve"> (Boolean lossesInThisYear)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3457,7 +3602,16 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>TotalBalanceScore</t>
+      <t>NegativeHistoryRelationsScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3467,18 +3621,28 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (Double totalBalance, CountryCode countryCode)</t>
-    </r>
-  </si>
-  <si>
-    <t>= TotalBalanceScore(currentFinancialData.totalAssets, countryCode)</t>
-  </si>
-  <si>
-    <t>= ProfitDynamicScore($ProfitDynamic, currentFinancialData.consolidatedProfit)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
+      <t>(Boolean negativeHistoryRelations)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3488,7 +3652,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>ProfitDynamicScore</t>
+      <t>NegativeMassMediaScore</t>
     </r>
     <r>
       <rPr>
@@ -3498,23 +3662,10 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (DoubleValue profitDynamic, Double profit)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SimpleRules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>LossesInThisYearScore</t>
-    </r>
+      <t xml:space="preserve"> (Boolean negativeMassMedia)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3523,110 +3674,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (Boolean lossesInThisYear)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NegativeHistoryRelationsScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(Boolean negativeHistoryRelations)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NegativeMassMediaScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (Boolean negativeMassMedia)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3678,7 +3726,98 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DowngradesOfBankRatingScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(boolean downgradesOfBankRating)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>TotalBalanceScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Double totalBalance, CountryCode countryCode)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3730,7 +3869,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3771,7 +3910,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleLookup DoubleValue</t>
+      <t>SimpleLookup Double</t>
     </r>
     <r>
       <rPr>
@@ -3811,7 +3950,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>(CountryCode countryCode, Boolean  isAdequateMaxCreditRisk)</t>
+      <t>(CountryCode countryCode, Boolean isAdequateMaxCreditRisk)</t>
     </r>
   </si>
   <si>
@@ -3823,7 +3962,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleLookup DoubleValue</t>
+      <t>SimpleLookup Double</t>
     </r>
     <r>
       <rPr>
@@ -3847,75 +3986,6 @@
     </r>
   </si>
   <si>
-    <t>Tests for "Rating Groups"</t>
-  </si>
-  <si>
-    <t>Test  BankRatingCalculation BankRatingTest</t>
-  </si>
-  <si>
-    <t>Test BalanceQualityIndexCalculation QualityIndexTest</t>
-  </si>
-  <si>
-    <t>Test BalanceDynamicIndexCalculation DynamicIndexTest</t>
-  </si>
-  <si>
-    <t>Test BankQualitativeIndexCalculation QualitativeIndexTest</t>
-  </si>
-  <si>
-    <t>Test  IsAdequateNormativeIndexCalculation IsAdequateNormativeIndexTest</t>
-  </si>
-  <si>
-    <t>Test  CapitalAdequacyScore CapitalAdequacyScoreTest</t>
-  </si>
-  <si>
-    <t>Test  ProfitDynamicScore ProfitDynamicScoreTest</t>
-  </si>
-  <si>
-    <t>Test  LossesInThisYearScore LossesInThisYearScoreTest</t>
-  </si>
-  <si>
-    <t>Test  TotalBalanceScore TotalBalanceScoreTest</t>
-  </si>
-  <si>
-    <t>Test   IsAdequateMaxCreditRiskScore  IsAdequateMaxCreditRiskScoreTest</t>
-  </si>
-  <si>
-    <t>Test   EquityScore EquityScoreTest</t>
-  </si>
-  <si>
-    <t>Test  BankRatingGroup BankRatingGroupTest</t>
-  </si>
-  <si>
-    <t>Test BankLimitIndex BankLimitIndexTest</t>
-  </si>
-  <si>
-    <t>Test  SetNonZeroValues SetNonZeroValuesTest</t>
-  </si>
-  <si>
-    <t>Tests for "Limit"</t>
-  </si>
-  <si>
-    <t>Tests for "Set NonZero Values"</t>
-  </si>
-  <si>
-    <t>Datasets</t>
-  </si>
-  <si>
-    <t>CheckCurrentFinancialData</t>
-  </si>
-  <si>
-    <t>CheckPreviousPeriodFinancialData</t>
-  </si>
-  <si>
-    <t>BalanceQualityIndexCalculation</t>
-  </si>
-  <si>
-    <t>BankRatingGroup</t>
-  </si>
-  <si>
-    <t>= round( $BalanceQualityIndexCalculation.$Value$BalanceQualityIndex * $BalanceDynamicIndexCalculation * $BankQualitativeIndexCalculation * $IsAdequateNormativeIndexCalculation, 2)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3924,7 +3994,71 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>SimpleRules DoubleValue</t>
+      <t xml:space="preserve">SimpleRules RatingGroup </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BankRatingGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Double bankRating)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Rules Double </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>BankLimitIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Bank bank, RatingGroup bankRatingGroup)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="2" tint="-0.749992370372631"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SimpleRules Double</t>
     </r>
     <r>
       <rPr>
@@ -3955,141 +4089,13 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> ()</t>
-    </r>
-  </si>
-  <si>
-    <t>= $LimitIndex * MaxLimit()</t>
-  </si>
-  <si>
-    <t>contains(ratingArray, bankRatings[select first having ratingAgency == agency].rating)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Datatype </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>LongTermRating</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>LongTermRating[] ratingArray</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Datatype </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>RatingGroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">SimpleRules RatingGroup </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>BankRatingGroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (DoubleValue bankRating)</t>
-    </r>
-  </si>
-  <si>
-    <t>RatingGroup[]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Rules DoubleValue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>BankLimitIndex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="2" tint="-0.749992370372631"/>
-        <rFont val="Palatino Linotype"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (Bank bank, RatingGroup bankRatingGroup)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
@@ -7118,9 +7124,9 @@
     <cellStyle name="Heading 1" xfId="5" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 7" xfId="3"/>
-    <cellStyle name="Normal_EPLI rater" xfId="1"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Normal 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_EPLI rater" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7161,7 +7167,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7260,7 +7272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7293,9 +7305,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7328,6 +7357,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7503,72 +7549,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88:G88"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="76.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="5.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="5" collapsed="1"/>
+    <col min="2" max="2" width="9.109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.6640625" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="76.6640625" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="5.88671875" style="5" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="25" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="11" max="11" width="19.109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.109375" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
       <c r="J1" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="51" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="186" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E6" s="187"/>
       <c r="F6" s="187"/>
       <c r="G6" s="188"/>
     </row>
-    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="150"/>
       <c r="E7" s="150"/>
       <c r="F7" s="150"/>
       <c r="G7" s="150"/>
     </row>
-    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="19.8" x14ac:dyDescent="0.45">
       <c r="D9" s="202" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E9" s="203"/>
       <c r="F9" s="203"/>
       <c r="G9" s="204"/>
     </row>
-    <row r="10" spans="2:10" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D10" s="117" t="s">
         <v>5</v>
       </c>
@@ -7576,11 +7624,11 @@
         <v>381</v>
       </c>
       <c r="F10" s="195" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G10" s="196"/>
     </row>
-    <row r="11" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D11" s="197" t="s">
         <v>6</v>
       </c>
@@ -7592,55 +7640,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
       <c r="D12" s="199" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="E12" s="200"/>
       <c r="F12" s="212"/>
       <c r="G12" s="116" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
       <c r="D13" s="191" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="E13" s="192"/>
       <c r="F13" s="213"/>
       <c r="G13" s="115" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D14" s="199" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="E14" s="200"/>
       <c r="F14" s="121"/>
       <c r="G14" s="116" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D15" s="191" t="s">
         <v>178</v>
       </c>
       <c r="E15" s="192"/>
       <c r="F15" s="214" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D16" s="191" t="s">
         <v>180</v>
       </c>
@@ -7650,7 +7698,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="191" t="s">
         <v>181</v>
       </c>
@@ -7660,22 +7708,22 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="45" x14ac:dyDescent="0.35">
       <c r="D18" s="199" t="s">
         <v>179</v>
       </c>
       <c r="E18" s="200"/>
       <c r="F18" s="158" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="D19" s="191" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="E19" s="192"/>
       <c r="F19" s="122" t="s">
@@ -7688,14 +7736,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="52"/>
       <c r="D20" s="208" t="s">
         <v>203</v>
       </c>
       <c r="E20" s="209"/>
       <c r="F20" s="123" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G20" s="119" t="s">
         <v>385</v>
@@ -7704,26 +7752,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="16"/>
       <c r="D21" s="193" t="s">
         <v>202</v>
       </c>
       <c r="E21" s="194"/>
       <c r="F21" s="124" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G21" s="120" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="D26" s="202" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E26" s="203"/>
       <c r="F26" s="203"/>
@@ -7732,7 +7780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="10"/>
       <c r="D27" s="117" t="s">
         <v>5</v>
@@ -7741,14 +7789,14 @@
         <v>381</v>
       </c>
       <c r="F27" s="195" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G27" s="196" t="s">
         <v>386</v>
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D28" s="197" t="s">
         <v>6</v>
       </c>
@@ -7760,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D29" s="199" t="s">
         <v>51</v>
       </c>
@@ -7772,19 +7820,19 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D30" s="189" t="s">
         <v>182</v>
       </c>
       <c r="E30" s="190"/>
       <c r="F30" s="126" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G30" s="127" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="D31" s="191" t="s">
         <v>358</v>
       </c>
@@ -7796,19 +7844,19 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D32" s="189" t="s">
         <v>359</v>
       </c>
       <c r="E32" s="190"/>
       <c r="F32" s="126" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G32" s="127" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D33" s="191" t="s">
         <v>57</v>
       </c>
@@ -7820,19 +7868,19 @@
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D34" s="189" t="s">
         <v>183</v>
       </c>
       <c r="E34" s="190"/>
       <c r="F34" s="126" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G34" s="127" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" ht="30" x14ac:dyDescent="0.35">
       <c r="D35" s="191" t="s">
         <v>59</v>
       </c>
@@ -7844,19 +7892,19 @@
         <v>393</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="30" x14ac:dyDescent="0.35">
       <c r="D36" s="189" t="s">
         <v>184</v>
       </c>
       <c r="E36" s="190"/>
       <c r="F36" s="126" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G36" s="127" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D37" s="191" t="s">
         <v>58</v>
       </c>
@@ -7868,19 +7916,19 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D38" s="189" t="s">
         <v>185</v>
       </c>
       <c r="E38" s="190"/>
       <c r="F38" s="126" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G38" s="127" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D39" s="191" t="s">
         <v>60</v>
       </c>
@@ -7892,19 +7940,19 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D40" s="189" t="s">
         <v>186</v>
       </c>
       <c r="E40" s="190"/>
       <c r="F40" s="126" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G40" s="127" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D41" s="191" t="s">
         <v>61</v>
       </c>
@@ -7916,19 +7964,19 @@
         <v>399</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D42" s="189" t="s">
         <v>187</v>
       </c>
       <c r="E42" s="190"/>
       <c r="F42" s="126" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G42" s="127" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D43" s="191" t="s">
         <v>62</v>
       </c>
@@ -7940,19 +7988,19 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D44" s="189" t="s">
         <v>188</v>
       </c>
       <c r="E44" s="190"/>
       <c r="F44" s="126" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G44" s="127" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="45" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:7" ht="30" x14ac:dyDescent="0.35">
       <c r="D45" s="191" t="s">
         <v>63</v>
       </c>
@@ -7964,19 +8012,19 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:7" ht="30" x14ac:dyDescent="0.35">
       <c r="D46" s="189" t="s">
         <v>189</v>
       </c>
       <c r="E46" s="190"/>
       <c r="F46" s="126" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G46" s="127" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D47" s="191" t="s">
         <v>64</v>
       </c>
@@ -7988,40 +8036,40 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D48" s="191" t="s">
         <v>190</v>
       </c>
       <c r="E48" s="192"/>
       <c r="F48" s="122" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G48" s="115" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="123" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D49" s="193" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="194"/>
       <c r="F49" s="159" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G49" s="120" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B54" s="10"/>
       <c r="D54" s="202" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="E54" s="203"/>
       <c r="F54" s="203"/>
@@ -8030,7 +8078,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="10"/>
       <c r="D55" s="117" t="s">
         <v>5</v>
@@ -8039,14 +8087,14 @@
         <v>381</v>
       </c>
       <c r="F55" s="195" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G55" s="196" t="s">
         <v>386</v>
       </c>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D56" s="197" t="s">
         <v>6</v>
       </c>
@@ -8058,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D57" s="199" t="s">
         <v>115</v>
       </c>
@@ -8067,22 +8115,22 @@
         <v>117</v>
       </c>
       <c r="G57" s="115" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D58" s="189" t="s">
         <v>116</v>
       </c>
       <c r="E58" s="190"/>
       <c r="F58" s="126" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G58" s="127" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D59" s="191" t="s">
         <v>132</v>
       </c>
@@ -8091,22 +8139,22 @@
         <v>134</v>
       </c>
       <c r="G59" s="115" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D60" s="189" t="s">
         <v>133</v>
       </c>
       <c r="E60" s="190"/>
       <c r="F60" s="126" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G60" s="127" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="D61" s="191" t="s">
         <v>130</v>
       </c>
@@ -8115,22 +8163,22 @@
         <v>135</v>
       </c>
       <c r="G61" s="115" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D62" s="189" t="s">
         <v>131</v>
       </c>
       <c r="E62" s="190"/>
       <c r="F62" s="126" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G62" s="127" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D63" s="191" t="s">
         <v>138</v>
       </c>
@@ -8139,22 +8187,22 @@
         <v>140</v>
       </c>
       <c r="G63" s="115" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D64" s="189" t="s">
         <v>137</v>
       </c>
       <c r="E64" s="190"/>
       <c r="F64" s="126" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G64" s="127" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="D65" s="191" t="s">
         <v>141</v>
       </c>
@@ -8163,34 +8211,34 @@
         <v>143</v>
       </c>
       <c r="G65" s="115" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D66" s="189" t="s">
         <v>142</v>
       </c>
       <c r="E66" s="190"/>
       <c r="F66" s="126" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G66" s="127" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10" ht="45.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D67" s="191" t="s">
         <v>144</v>
       </c>
       <c r="E67" s="192"/>
       <c r="F67" s="149" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G67" s="127" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D68" s="193" t="s">
         <v>113</v>
       </c>
@@ -8200,10 +8248,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:10" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B73" s="16"/>
       <c r="D73" s="202" t="s">
-        <v>473</v>
+        <v>669</v>
       </c>
       <c r="E73" s="203"/>
       <c r="F73" s="203"/>
@@ -8212,7 +8260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B74" s="16"/>
       <c r="D74" s="117" t="s">
         <v>5</v>
@@ -8221,14 +8269,14 @@
         <v>381</v>
       </c>
       <c r="F74" s="195" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G74" s="196" t="s">
         <v>386</v>
       </c>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D75" s="197" t="s">
         <v>6</v>
       </c>
@@ -8240,19 +8288,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D76" s="199" t="s">
         <v>151</v>
       </c>
       <c r="E76" s="200"/>
       <c r="F76" s="205" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G76" s="115" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D77" s="191" t="s">
         <v>152</v>
       </c>
@@ -8262,7 +8310,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D78" s="191" t="s">
         <v>153</v>
       </c>
@@ -8272,7 +8320,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="79" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="D79" s="191" t="s">
         <v>154</v>
       </c>
@@ -8282,7 +8330,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D80" s="191" t="s">
         <v>155</v>
       </c>
@@ -8292,29 +8340,29 @@
         <v>418</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D81" s="189" t="s">
         <v>164</v>
       </c>
       <c r="E81" s="190"/>
       <c r="F81" s="207"/>
       <c r="G81" s="127" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D82" s="191" t="s">
         <v>176</v>
       </c>
       <c r="E82" s="192"/>
       <c r="F82" s="122" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G82" s="115" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D83" s="193" t="s">
         <v>113</v>
       </c>
@@ -8324,10 +8372,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:10" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B88" s="16"/>
       <c r="D88" s="202" t="s">
-        <v>474</v>
+        <v>670</v>
       </c>
       <c r="E88" s="203"/>
       <c r="F88" s="203"/>
@@ -8336,7 +8384,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B89" s="16"/>
       <c r="D89" s="117" t="s">
         <v>5</v>
@@ -8345,14 +8393,14 @@
         <v>381</v>
       </c>
       <c r="F89" s="195" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G89" s="196" t="s">
         <v>386</v>
       </c>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D90" s="197" t="s">
         <v>6</v>
       </c>
@@ -8364,19 +8412,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D91" s="199" t="s">
         <v>172</v>
       </c>
       <c r="E91" s="200"/>
       <c r="F91" s="210" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G91" s="115" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D92" s="191" t="s">
         <v>174</v>
       </c>
@@ -8386,7 +8434,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="D93" s="191" t="s">
         <v>173</v>
       </c>
@@ -8396,29 +8444,29 @@
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D94" s="189" t="s">
         <v>175</v>
       </c>
       <c r="E94" s="190"/>
       <c r="F94" s="211"/>
       <c r="G94" s="127" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D95" s="191" t="s">
         <v>177</v>
       </c>
       <c r="E95" s="192"/>
       <c r="F95" s="123" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G95" s="115" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="96" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D96" s="193" t="s">
         <v>113</v>
       </c>
@@ -8509,15 +8557,15 @@
     <mergeCell ref="D75:E75"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J26" location="'Balance Quality'!A1" display="'Balance Quality'!A1"/>
-    <hyperlink ref="J54" location="'Balance Quality in Dynamic'!A1" display="'Balance Quality in Dynamic'!A1"/>
-    <hyperlink ref="J73" location="'Bank Qualitative factors'!A1" display="'Bank Qualitative factors'!A1"/>
-    <hyperlink ref="J88" location="'Central Bank Req'!A1" display="'Central Bank Req'!A1"/>
-    <hyperlink ref="J12" location="'Set NonZero Values'!A1" display="Set Default Values'!A1"/>
-    <hyperlink ref="J19" location="'Rating Groups'!A1" display="'Rating Groups'!A1"/>
-    <hyperlink ref="J20" location="Limit!A1" display="Limit!A1"/>
-    <hyperlink ref="J21" location="'Max Limit'!A1" display="'Max Limit'!A1"/>
-    <hyperlink ref="J1" r:id="rId1"/>
+    <hyperlink ref="J26" location="'Balance Quality'!A1" display="'Balance Quality'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J54" location="'Balance Quality in Dynamic'!A1" display="'Balance Quality in Dynamic'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J73" location="'Bank Qualitative factors'!A1" display="'Bank Qualitative factors'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J88" location="'Central Bank Req'!A1" display="'Central Bank Req'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J12" location="'Set NonZero Values'!A1" display="Set Default Values'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J19" location="'Rating Groups'!A1" display="'Rating Groups'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J20" location="Limit!A1" display="Limit!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J21" location="'Max Limit'!A1" display="'Max Limit'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8526,37 +8574,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="44" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:5" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="15" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="219" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="D6" s="220"/>
       <c r="E6" s="217"/>
     </row>
-    <row r="7" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" s="15" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="128" t="s">
         <v>37</v>
       </c>
@@ -8567,20 +8615,20 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="136" t="s">
         <v>170</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E8" s="138" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="177" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D9" s="179" t="b">
         <v>1</v>
@@ -8589,9 +8637,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="144" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D10" s="175" t="b">
         <v>1</v>
@@ -8600,9 +8648,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="144" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D11" s="175" t="b">
         <v>0</v>
@@ -8611,9 +8659,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" s="15" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="146" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D12" s="176" t="b">
         <v>0</v>
@@ -8622,14 +8670,14 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C16" s="219" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="D16" s="220"/>
       <c r="E16" s="217"/>
     </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="128" t="s">
         <v>37</v>
       </c>
@@ -8640,20 +8688,20 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" s="136" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E18" s="138" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="177" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D19" s="179">
         <v>100</v>
@@ -8662,9 +8710,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="177" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D20" s="181">
         <v>1000</v>
@@ -8673,9 +8721,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" s="144" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D21" s="180">
         <v>2000</v>
@@ -8684,9 +8732,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="146" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D22" s="176">
         <v>300</v>
@@ -8695,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -8708,64 +8756,66 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="F1" s="16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C3" s="44"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="15" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" s="15" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="15" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="C5" s="186" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D5" s="187"/>
       <c r="E5" s="188"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="C6" s="148"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="223" t="s">
         <v>695</v>
       </c>
       <c r="D8" s="223"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="39" t="s">
         <v>197</v>
       </c>
@@ -8773,7 +8823,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
         <v>337</v>
       </c>
@@ -8781,7 +8831,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="42" t="s">
         <v>370</v>
       </c>
@@ -8789,7 +8839,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="42" t="s">
         <v>369</v>
       </c>
@@ -8797,7 +8847,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="42" t="s">
         <v>368</v>
       </c>
@@ -8805,7 +8855,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="43" t="s">
         <v>198</v>
       </c>
@@ -8813,19 +8863,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
@@ -8835,57 +8885,57 @@
     <mergeCell ref="C5:E5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Rating Algorithm'!A19" display="Rating Algorithm'!A19"/>
+    <hyperlink ref="F1" location="'Rating Algorithm'!A19" display="Rating Algorithm'!A19" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="44" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="C6" s="225" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="D6" s="225"/>
     </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="15"/>
       <c r="C7" s="161" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D7" s="162" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="15"/>
       <c r="C8" s="163" t="s">
         <v>197</v>
@@ -8894,7 +8944,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="183">
         <v>0</v>
       </c>
@@ -8902,15 +8952,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="183" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D10" s="168" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="183" t="s">
         <v>367</v>
       </c>
@@ -8918,16 +8968,16 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="15"/>
       <c r="C12" s="166" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D12" s="168" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15"/>
       <c r="C13" s="165">
         <v>1</v>
@@ -8945,67 +8995,69 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="O1" s="16" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="C3" s="44" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D3" s="44"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="15" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="D5" s="186" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E5" s="242"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="C8" s="202" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D8" s="203"/>
       <c r="E8" s="203"/>
@@ -9018,7 +9070,7 @@
       <c r="L8" s="203"/>
       <c r="M8" s="204"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C9" s="92" t="s">
         <v>167</v>
       </c>
@@ -9043,10 +9095,10 @@
       <c r="L9" s="114"/>
       <c r="M9" s="91"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C10" s="89"/>
       <c r="D10" s="250" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="E10" s="251"/>
       <c r="F10" s="100" t="s">
@@ -9056,7 +9108,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="100" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I10" s="100"/>
       <c r="J10" s="100"/>
@@ -9064,16 +9116,16 @@
       <c r="L10" s="100"/>
       <c r="M10" s="45"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="90"/>
       <c r="D11" s="38" t="s">
         <v>212</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>427</v>
@@ -9087,7 +9139,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="1:15" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="261" t="s">
         <v>443</v>
       </c>
@@ -9098,10 +9150,10 @@
         <v>209</v>
       </c>
       <c r="F12" s="254" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G12" s="255" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H12" s="256"/>
       <c r="I12" s="256"/>
@@ -9112,32 +9164,32 @@
       <c r="L12" s="256"/>
       <c r="M12" s="94"/>
     </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="262"/>
       <c r="D13" s="253"/>
       <c r="E13" s="253"/>
       <c r="F13" s="253"/>
       <c r="G13" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="H13" s="160" t="s">
+        <v>526</v>
+      </c>
+      <c r="I13" s="160" t="s">
+        <v>527</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="H13" s="160" t="s">
+      <c r="K13" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="L13" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="J13" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>533</v>
-      </c>
       <c r="M13" s="97"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C14" s="31">
         <v>1</v>
       </c>
@@ -9158,7 +9210,7 @@
       <c r="L14" s="257"/>
       <c r="M14" s="258"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15" s="33">
         <v>2</v>
       </c>
@@ -9177,7 +9229,7 @@
       <c r="L15" s="257"/>
       <c r="M15" s="258"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C16" s="33">
         <v>3</v>
       </c>
@@ -9196,7 +9248,7 @@
       <c r="L16" s="257"/>
       <c r="M16" s="258"/>
     </row>
-    <row r="17" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="33">
         <v>4</v>
       </c>
@@ -9219,7 +9271,7 @@
       <c r="L17" s="257"/>
       <c r="M17" s="258"/>
     </row>
-    <row r="18" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C18" s="33">
         <v>5</v>
       </c>
@@ -9238,7 +9290,7 @@
       <c r="L18" s="257"/>
       <c r="M18" s="258"/>
     </row>
-    <row r="19" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="33">
         <v>6</v>
       </c>
@@ -9257,7 +9309,7 @@
       <c r="L19" s="257"/>
       <c r="M19" s="258"/>
     </row>
-    <row r="20" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="33">
         <v>7</v>
       </c>
@@ -9288,7 +9340,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="33">
         <v>8</v>
       </c>
@@ -9319,7 +9371,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="33">
         <v>9</v>
       </c>
@@ -9350,7 +9402,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C23" s="33">
         <v>10</v>
       </c>
@@ -9381,7 +9433,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="35">
         <v>11</v>
       </c>
@@ -9400,45 +9452,45 @@
       <c r="L24" s="259"/>
       <c r="M24" s="260"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D29" s="235"/>
       <c r="E29" s="235"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
       <c r="E33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="4:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="4:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D36" s="2"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
       <c r="E40" s="112"/>
     </row>
   </sheetData>
@@ -9463,7 +9515,7 @@
     <mergeCell ref="F12:F13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O1" location="'Rating Algorithm'!A20" display="Rating Algorithm'!A20"/>
+    <hyperlink ref="O1" location="'Rating Algorithm'!A20" display="Rating Algorithm'!A20" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9471,38 +9523,38 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="44" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="15"/>
       <c r="C5" s="219" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="D5" s="220"/>
       <c r="E5" s="217"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="C6" s="128" t="s">
         <v>161</v>
@@ -9514,7 +9566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="15"/>
       <c r="C7" s="131" t="s">
         <v>163</v>
@@ -9522,19 +9574,19 @@
       <c r="D7" s="134"/>
       <c r="E7" s="135"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="15"/>
       <c r="C8" s="136" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D8" s="142" t="s">
         <v>199</v>
       </c>
       <c r="E8" s="138" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="15"/>
       <c r="C9" s="139" t="s">
         <v>52</v>
@@ -9555,57 +9607,59 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2" collapsed="1"/>
-    <col min="3" max="3" width="35.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="2" width="9.109375" style="2" collapsed="1"/>
+    <col min="3" max="3" width="35.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F1" s="16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="44" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C2" s="44"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="186" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D4" s="188"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F5" s="16"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C7" s="20" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="74" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="75">
         <v>5000</v>
       </c>
@@ -9617,7 +9671,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Rating Algorithm'!A21" display="Rating Algorithm'!A21"/>
+    <hyperlink ref="F1" location="'Rating Algorithm'!A21" display="Rating Algorithm'!A21" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9625,7 +9679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9633,36 +9687,36 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="48.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H1" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="44" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C2" s="44"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="C4" s="239" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D4" s="240"/>
       <c r="E4" s="240"/>
       <c r="F4" s="241"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C5" s="99" t="s">
         <v>7</v>
       </c>
@@ -9676,7 +9730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
@@ -9690,7 +9744,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C7" s="53" t="s">
         <v>338</v>
       </c>
@@ -9702,7 +9756,7 @@
       </c>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C8" s="56" t="s">
         <v>13</v>
       </c>
@@ -9714,7 +9768,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C9" s="56" t="s">
         <v>338</v>
       </c>
@@ -9726,7 +9780,7 @@
       </c>
       <c r="F9" s="59"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C10" s="56" t="s">
         <v>13</v>
       </c>
@@ -9738,7 +9792,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C11" s="56" t="s">
         <v>338</v>
       </c>
@@ -9750,7 +9804,7 @@
       </c>
       <c r="F11" s="59"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C12" s="56" t="s">
         <v>13</v>
       </c>
@@ -9762,7 +9816,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" s="56" t="s">
         <v>338</v>
       </c>
@@ -9774,7 +9828,7 @@
       </c>
       <c r="F13" s="59"/>
     </row>
-    <row r="14" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="56" t="s">
         <v>13</v>
       </c>
@@ -9786,7 +9840,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="56" t="s">
         <v>338</v>
       </c>
@@ -9798,7 +9852,7 @@
       </c>
       <c r="F15" s="59"/>
     </row>
-    <row r="16" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="56" t="s">
         <v>13</v>
       </c>
@@ -9810,7 +9864,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="56" t="s">
         <v>338</v>
       </c>
@@ -9822,7 +9876,7 @@
       </c>
       <c r="F17" s="59"/>
     </row>
-    <row r="18" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C18" s="56" t="s">
         <v>13</v>
       </c>
@@ -9834,7 +9888,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="56" t="s">
         <v>338</v>
       </c>
@@ -9846,7 +9900,7 @@
       </c>
       <c r="F19" s="59"/>
     </row>
-    <row r="20" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="56" t="s">
         <v>13</v>
       </c>
@@ -9858,7 +9912,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="56" t="s">
         <v>338</v>
       </c>
@@ -9870,7 +9924,7 @@
       </c>
       <c r="F21" s="59"/>
     </row>
-    <row r="22" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="56" t="s">
         <v>13</v>
       </c>
@@ -9882,7 +9936,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="56" t="s">
         <v>338</v>
       </c>
@@ -9894,7 +9948,7 @@
       </c>
       <c r="F23" s="59"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="60" t="s">
         <v>13</v>
       </c>
@@ -9906,7 +9960,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="19"/>
@@ -9916,7 +9970,7 @@
     <mergeCell ref="C4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H1" location="'Rating Algorithm'!A12" display="Rating Algorithm'!A12"/>
+    <hyperlink ref="H1" location="'Rating Algorithm'!A12" display="Rating Algorithm'!A12" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9924,77 +9978,77 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="44" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="15"/>
       <c r="C6" s="225" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="D6" s="225"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="15"/>
       <c r="C7" s="128" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" s="130" t="s">
         <v>587</v>
       </c>
-      <c r="D7" s="130" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15"/>
       <c r="C8" s="133" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D8" s="135"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
       <c r="C9" s="136" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D9" s="138" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="15"/>
       <c r="C10" s="139">
         <v>2009</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C13" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -10006,7 +10060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
@@ -10014,29 +10068,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="2" width="9.109375" style="2" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="44" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C2" s="44"/>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="C5" s="266" t="s">
         <v>463</v>
       </c>
       <c r="D5" s="267"/>
       <c r="E5" s="268"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C6" s="81" t="s">
         <v>2</v>
       </c>
@@ -10045,7 +10099,7 @@
       </c>
       <c r="E6" s="64"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C7" s="79" t="s">
         <v>2</v>
       </c>
@@ -10054,7 +10108,7 @@
       </c>
       <c r="E7" s="66"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C8" s="79" t="s">
         <v>148</v>
       </c>
@@ -10062,10 +10116,10 @@
         <v>37</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C9" s="82" t="s">
         <v>35</v>
       </c>
@@ -10074,25 +10128,25 @@
       </c>
       <c r="E9" s="67"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C10" s="82" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E10" s="67"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C11" s="82" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C12" s="80" t="s">
         <v>373</v>
       </c>
@@ -10101,14 +10155,14 @@
       </c>
       <c r="E12" s="69"/>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="C15" s="269" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D15" s="270"/>
       <c r="E15" s="271"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C16" s="78" t="s">
         <v>375</v>
       </c>
@@ -10117,7 +10171,7 @@
       </c>
       <c r="E16" s="66"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="79" t="s">
         <v>20</v>
       </c>
@@ -10128,7 +10182,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" s="79" t="s">
         <v>20</v>
       </c>
@@ -10139,7 +10193,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="79" t="s">
         <v>20</v>
       </c>
@@ -10150,7 +10204,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C20" s="79" t="s">
         <v>20</v>
       </c>
@@ -10161,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" s="79" t="s">
         <v>20</v>
       </c>
@@ -10172,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C22" s="79" t="s">
         <v>20</v>
       </c>
@@ -10183,7 +10237,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C23" s="79" t="s">
         <v>20</v>
       </c>
@@ -10194,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C24" s="79" t="s">
         <v>20</v>
       </c>
@@ -10205,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C25" s="79" t="s">
         <v>20</v>
       </c>
@@ -10216,7 +10270,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C26" s="79" t="s">
         <v>20</v>
       </c>
@@ -10227,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C27" s="79" t="s">
         <v>20</v>
       </c>
@@ -10238,7 +10292,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C28" s="79" t="s">
         <v>20</v>
       </c>
@@ -10249,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C29" s="79" t="s">
         <v>20</v>
       </c>
@@ -10260,7 +10314,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C30" s="79" t="s">
         <v>20</v>
       </c>
@@ -10271,7 +10325,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C31" s="79" t="s">
         <v>20</v>
       </c>
@@ -10282,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C32" s="80" t="s">
         <v>20</v>
       </c>
@@ -10293,14 +10347,14 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="C35" s="269" t="s">
         <v>464</v>
       </c>
       <c r="D35" s="270"/>
       <c r="E35" s="271"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="78" t="s">
         <v>375</v>
       </c>
@@ -10309,7 +10363,7 @@
       </c>
       <c r="E36" s="66"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="79" t="s">
         <v>21</v>
       </c>
@@ -10320,7 +10374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" s="79" t="s">
         <v>21</v>
       </c>
@@ -10331,7 +10385,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" s="79" t="s">
         <v>21</v>
       </c>
@@ -10342,7 +10396,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" s="79" t="s">
         <v>21</v>
       </c>
@@ -10353,7 +10407,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" s="79" t="s">
         <v>21</v>
       </c>
@@ -10364,7 +10418,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C42" s="79" t="s">
         <v>21</v>
       </c>
@@ -10375,7 +10429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C43" s="79" t="s">
         <v>21</v>
       </c>
@@ -10386,7 +10440,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C44" s="80" t="s">
         <v>21</v>
       </c>
@@ -10397,13 +10451,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="C47" s="272" t="s">
         <v>468</v>
       </c>
       <c r="D47" s="273"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C48" s="81" t="s">
         <v>22</v>
       </c>
@@ -10411,7 +10465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C49" s="80" t="s">
         <v>2</v>
       </c>
@@ -10432,7 +10486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
@@ -10441,388 +10495,388 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="34.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" width="9.109375" style="2" collapsed="1"/>
+    <col min="4" max="4" width="34.44140625" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="30" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="6" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="44" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D6" s="27" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D7" s="66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D8" s="66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D9" s="69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="27" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D13" s="66" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D14" s="66" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D15" s="66" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D16" s="66" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="66" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="66" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" s="66" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" s="66" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" s="66" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" s="66" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" s="66" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" s="66" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" s="66" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" s="66" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" s="66" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" s="66" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" s="66" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" s="66" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32" s="66" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="66" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="66" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="66" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="66" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="66" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="66" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="66" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="66" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="66" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="66" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="66" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="66" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="66" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="66" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="66" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="66" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="66" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="66" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="66" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="66" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="66" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="66" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="66" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="69" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="4:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D59" s="27" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60" s="66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="66" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D61" s="66" t="s">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D62" s="66" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D63" s="66" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D64" s="66" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D62" s="66" t="s">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="66" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D63" s="66" t="s">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="66" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D64" s="66" t="s">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="66" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="66" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="66" t="s">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D68" s="66" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="66" t="s">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="66" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" s="66" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="66" t="s">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D70" s="66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D71" s="66" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="66" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="66" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="66" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="66" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="66" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="66" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="69" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" ht="18" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D80" s="27" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="66" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="66" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="66" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="66" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="69" t="s">
         <v>192</v>
       </c>
@@ -10836,38 +10890,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="44" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="C6" s="215" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="D6" s="216"/>
       <c r="E6" s="217"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="128" t="s">
         <v>161</v>
       </c>
@@ -10878,16 +10932,16 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="133" t="s">
         <v>163</v>
       </c>
       <c r="D8" s="134"/>
       <c r="E8" s="135"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="136" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D9" s="137" t="s">
         <v>199</v>
@@ -10896,7 +10950,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="139" t="s">
         <v>52</v>
       </c>
@@ -10907,43 +10961,43 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="C14" s="218" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="D14" s="218"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="128" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D15" s="130" t="s">
         <v>371</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="133" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D16" s="135"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="136" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D17" s="138" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="139">
         <v>2010</v>
       </c>
@@ -10952,52 +11006,52 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="C22" s="219" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="D22" s="220"/>
       <c r="E22" s="217"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="128" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D23" s="129" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E23" s="130" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="133" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D24" s="134" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E24" s="135"/>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.35">
       <c r="C25" s="136" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D25" s="142" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E25" s="138" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="139">
         <v>2010</v>
       </c>
@@ -11008,17 +11062,17 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="C30" s="215" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="D30" s="217"/>
     </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C31" s="128" t="s">
         <v>161</v>
       </c>
@@ -11026,21 +11080,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="131" t="s">
         <v>163</v>
       </c>
       <c r="D32" s="132"/>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="136" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C34" s="139" t="s">
         <v>52</v>
       </c>
@@ -11048,18 +11102,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="C38" s="218" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="D38" s="218"/>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="128" t="s">
         <v>161</v>
       </c>
@@ -11067,21 +11121,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C40" s="133" t="s">
         <v>163</v>
       </c>
       <c r="D40" s="135"/>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="136" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="5" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="139" t="s">
         <v>52</v>
       </c>
@@ -11089,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
     </row>
   </sheetData>
@@ -11105,7 +11159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
   </sheetPr>
@@ -11113,52 +11167,52 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="3.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="48.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="48.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.6640625" style="2" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="25" style="2" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="23.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="18" max="18" width="38.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="19.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="44" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="F2" s="154" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G2" s="155" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F3" s="156"/>
       <c r="G3" s="157" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="B5" s="274" t="s">
         <v>469</v>
       </c>
@@ -11169,7 +11223,7 @@
       <c r="G5" s="275"/>
       <c r="H5" s="276"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="104" t="s">
         <v>18</v>
       </c>
@@ -11183,16 +11237,16 @@
         <v>36</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H6" s="108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="83"/>
       <c r="C7" s="87"/>
       <c r="D7" s="88"/>
@@ -11200,39 +11254,39 @@
         <v>376</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G7" s="86" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H7" s="85" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="72" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D8" s="72" t="s">
         <v>170</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="77" t="s">
         <v>52</v>
       </c>
@@ -11240,7 +11294,7 @@
         <v>150</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>223</v>
@@ -11255,9 +11309,9 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="B12" s="274" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C12" s="275"/>
       <c r="D12" s="275"/>
@@ -11277,7 +11331,7 @@
       <c r="R12" s="275"/>
       <c r="S12" s="276"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="84" t="s">
         <v>216</v>
       </c>
@@ -11333,63 +11387,63 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="72" t="s">
         <v>380</v>
       </c>
       <c r="C14" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>613</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>614</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>615</v>
+      </c>
+      <c r="G14" s="72" t="s">
         <v>616</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="H14" s="72" t="s">
         <v>617</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="I14" s="72" t="s">
         <v>618</v>
       </c>
-      <c r="F14" s="72" t="s">
-        <v>619</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>620</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>621</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>622</v>
-      </c>
       <c r="J14" s="72" t="s">
+        <v>623</v>
+      </c>
+      <c r="K14" s="72" t="s">
+        <v>624</v>
+      </c>
+      <c r="L14" s="72" t="s">
+        <v>625</v>
+      </c>
+      <c r="M14" s="72" t="s">
+        <v>569</v>
+      </c>
+      <c r="N14" s="72" t="s">
+        <v>626</v>
+      </c>
+      <c r="O14" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="P14" s="72" t="s">
         <v>628</v>
       </c>
-      <c r="L14" s="72" t="s">
+      <c r="Q14" s="72" t="s">
         <v>629</v>
       </c>
-      <c r="M14" s="72" t="s">
-        <v>572</v>
-      </c>
-      <c r="N14" s="72" t="s">
+      <c r="R14" s="72" t="s">
         <v>630</v>
       </c>
-      <c r="O14" s="72" t="s">
+      <c r="S14" s="72" t="s">
         <v>631</v>
       </c>
-      <c r="P14" s="72" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q14" s="72" t="s">
-        <v>633</v>
-      </c>
-      <c r="R14" s="72" t="s">
-        <v>634</v>
-      </c>
-      <c r="S14" s="72" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="77">
         <v>2010</v>
       </c>
@@ -11445,7 +11499,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="77">
         <v>2009</v>
       </c>
@@ -11483,7 +11537,7 @@
         <v>-4633</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="B19" s="274" t="s">
         <v>470</v>
       </c>
@@ -11497,7 +11551,7 @@
       <c r="J19" s="275"/>
       <c r="K19" s="276"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="84" t="s">
         <v>216</v>
       </c>
@@ -11529,27 +11583,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="72" t="s">
         <v>380</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D21" s="72" t="s">
         <v>156</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F21" s="72" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G21" s="72" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H21" s="72" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I21" s="72" t="s">
         <v>48</v>
@@ -11561,7 +11615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="77">
         <v>2010</v>
       </c>
@@ -11593,14 +11647,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="B25" s="274" t="s">
         <v>465</v>
       </c>
       <c r="C25" s="275"/>
       <c r="D25" s="276"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="101" t="s">
         <v>216</v>
       </c>
@@ -11611,7 +11665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="72" t="s">
         <v>224</v>
       </c>
@@ -11622,7 +11676,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="76" t="s">
         <v>267</v>
       </c>
@@ -11633,7 +11687,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="77" t="s">
         <v>268</v>
       </c>
@@ -11644,7 +11698,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="77" t="s">
         <v>269</v>
       </c>
@@ -11655,7 +11709,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="77" t="s">
         <v>270</v>
       </c>
@@ -11666,7 +11720,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="77" t="s">
         <v>271</v>
       </c>
@@ -11681,7 +11735,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="77" t="s">
         <v>220</v>
       </c>
@@ -11692,7 +11746,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="77" t="s">
         <v>272</v>
       </c>
@@ -11703,7 +11757,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="77" t="s">
         <v>273</v>
       </c>
@@ -11714,7 +11768,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="77" t="s">
         <v>274</v>
       </c>
@@ -11725,7 +11779,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="77" t="s">
         <v>275</v>
       </c>
@@ -11736,7 +11790,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="77" t="s">
         <v>276</v>
       </c>
@@ -11747,7 +11801,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="77" t="s">
         <v>277</v>
       </c>
@@ -11758,7 +11812,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="77" t="s">
         <v>278</v>
       </c>
@@ -11771,7 +11825,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="77" t="s">
         <v>279</v>
       </c>
@@ -11782,7 +11836,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="77" t="s">
         <v>280</v>
       </c>
@@ -11793,7 +11847,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="77" t="s">
         <v>281</v>
       </c>
@@ -11804,7 +11858,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="77" t="s">
         <v>282</v>
       </c>
@@ -11815,7 +11869,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="77" t="s">
         <v>283</v>
       </c>
@@ -11826,7 +11880,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="77" t="s">
         <v>284</v>
       </c>
@@ -11837,7 +11891,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="77" t="s">
         <v>285</v>
       </c>
@@ -11848,7 +11902,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="77" t="s">
         <v>286</v>
       </c>
@@ -11859,7 +11913,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="77" t="s">
         <v>287</v>
       </c>
@@ -11870,7 +11924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="77" t="s">
         <v>288</v>
       </c>
@@ -11881,7 +11935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="77" t="s">
         <v>289</v>
       </c>
@@ -11892,7 +11946,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="77" t="s">
         <v>290</v>
       </c>
@@ -11903,7 +11957,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="77" t="s">
         <v>221</v>
       </c>
@@ -11914,7 +11968,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="77" t="s">
         <v>291</v>
       </c>
@@ -11925,7 +11979,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="77" t="s">
         <v>292</v>
       </c>
@@ -11936,7 +11990,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="77" t="s">
         <v>293</v>
       </c>
@@ -11947,7 +12001,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="77" t="s">
         <v>294</v>
       </c>
@@ -11958,7 +12012,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="77" t="s">
         <v>295</v>
       </c>
@@ -11969,7 +12023,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="77" t="s">
         <v>296</v>
       </c>
@@ -11980,7 +12034,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="77" t="s">
         <v>297</v>
       </c>
@@ -11991,7 +12045,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="77" t="s">
         <v>298</v>
       </c>
@@ -12002,7 +12056,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="77" t="s">
         <v>299</v>
       </c>
@@ -12013,7 +12067,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="77" t="s">
         <v>300</v>
       </c>
@@ -12024,7 +12078,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="77" t="s">
         <v>301</v>
       </c>
@@ -12035,7 +12089,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="77" t="s">
         <v>302</v>
       </c>
@@ -12046,7 +12100,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="77" t="s">
         <v>303</v>
       </c>
@@ -12057,7 +12111,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="77" t="s">
         <v>304</v>
       </c>
@@ -12068,7 +12122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="77" t="s">
         <v>305</v>
       </c>
@@ -12079,7 +12133,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="77" t="s">
         <v>308</v>
       </c>
@@ -12090,7 +12144,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="77" t="s">
         <v>309</v>
       </c>
@@ -12101,7 +12155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="77" t="s">
         <v>310</v>
       </c>
@@ -12112,7 +12166,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="77" t="s">
         <v>311</v>
       </c>
@@ -12123,7 +12177,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="77" t="s">
         <v>312</v>
       </c>
@@ -12134,7 +12188,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="77" t="s">
         <v>222</v>
       </c>
@@ -12145,7 +12199,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="77" t="s">
         <v>313</v>
       </c>
@@ -12156,7 +12210,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="77" t="s">
         <v>314</v>
       </c>
@@ -12167,7 +12221,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="77" t="s">
         <v>315</v>
       </c>
@@ -12178,7 +12232,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="77" t="s">
         <v>316</v>
       </c>
@@ -12189,7 +12243,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" s="77" t="s">
         <v>317</v>
       </c>
@@ -12200,7 +12254,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="77" t="s">
         <v>318</v>
       </c>
@@ -12211,7 +12265,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="77" t="s">
         <v>319</v>
       </c>
@@ -12222,7 +12276,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="77" t="s">
         <v>320</v>
       </c>
@@ -12233,7 +12287,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="77" t="s">
         <v>321</v>
       </c>
@@ -12244,7 +12298,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="77" t="s">
         <v>322</v>
       </c>
@@ -12255,7 +12309,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" s="77" t="s">
         <v>323</v>
       </c>
@@ -12266,7 +12320,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="77" t="s">
         <v>324</v>
       </c>
@@ -12277,7 +12331,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" s="77" t="s">
         <v>325</v>
       </c>
@@ -12288,7 +12342,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="77" t="s">
         <v>326</v>
       </c>
@@ -12299,7 +12353,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="77" t="s">
         <v>327</v>
       </c>
@@ -12310,7 +12364,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="77" t="s">
         <v>328</v>
       </c>
@@ -12329,7 +12383,7 @@
     <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -12337,67 +12391,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109:D109"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" collapsed="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="4" collapsed="1"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F1" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C3" s="44"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="C5" s="221" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D5" s="222"/>
       <c r="E5" s="151"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="C6" s="151"/>
       <c r="D6" s="151"/>
       <c r="E6" s="151"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="202" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="D8" s="204"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="39" t="s">
         <v>79</v>
       </c>
@@ -12405,7 +12461,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
         <v>335</v>
       </c>
@@ -12414,7 +12470,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C11" s="42" t="s">
         <v>361</v>
       </c>
@@ -12422,7 +12478,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C12" s="42" t="s">
         <v>362</v>
       </c>
@@ -12431,7 +12487,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C13" s="42" t="s">
         <v>55</v>
       </c>
@@ -12439,7 +12495,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C14" s="42" t="s">
         <v>56</v>
       </c>
@@ -12447,7 +12503,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="43" t="s">
         <v>0</v>
       </c>
@@ -12455,14 +12511,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="223" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="D19" s="223"/>
     </row>
-    <row r="20" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="39" t="s">
         <v>430</v>
       </c>
@@ -12470,7 +12526,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="41" t="s">
         <v>334</v>
       </c>
@@ -12478,7 +12534,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="42" t="s">
         <v>75</v>
       </c>
@@ -12486,7 +12542,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" s="42" t="s">
         <v>76</v>
       </c>
@@ -12494,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" s="42" t="s">
         <v>77</v>
       </c>
@@ -12502,7 +12558,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="43" t="s">
         <v>78</v>
       </c>
@@ -12510,15 +12566,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="224" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="D29" s="224"/>
     </row>
-    <row r="30" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="39" t="s">
         <v>80</v>
       </c>
@@ -12526,7 +12582,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C31" s="41" t="s">
         <v>335</v>
       </c>
@@ -12534,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" s="42" t="s">
         <v>81</v>
       </c>
@@ -12542,7 +12598,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C33" s="42" t="s">
         <v>82</v>
       </c>
@@ -12550,7 +12606,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C34" s="42" t="s">
         <v>83</v>
       </c>
@@ -12558,7 +12614,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C35" s="42" t="s">
         <v>84</v>
       </c>
@@ -12566,7 +12622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C36" s="43" t="s">
         <v>85</v>
       </c>
@@ -12574,14 +12630,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" s="223" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="D40" s="223"/>
     </row>
-    <row r="41" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C41" s="39" t="s">
         <v>433</v>
       </c>
@@ -12589,7 +12645,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C42" s="41" t="s">
         <v>333</v>
       </c>
@@ -12597,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C43" s="42" t="s">
         <v>90</v>
       </c>
@@ -12605,7 +12661,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C44" s="42" t="s">
         <v>89</v>
       </c>
@@ -12613,7 +12669,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C45" s="42" t="s">
         <v>88</v>
       </c>
@@ -12621,7 +12677,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C46" s="42" t="s">
         <v>87</v>
       </c>
@@ -12629,7 +12685,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C47" s="43" t="s">
         <v>86</v>
       </c>
@@ -12637,14 +12693,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C51" s="224" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="D51" s="224"/>
     </row>
-    <row r="52" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C52" s="39" t="s">
         <v>91</v>
       </c>
@@ -12652,7 +12708,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C53" s="41" t="s">
         <v>334</v>
       </c>
@@ -12660,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C54" s="42" t="s">
         <v>92</v>
       </c>
@@ -12668,7 +12724,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C55" s="42" t="s">
         <v>93</v>
       </c>
@@ -12676,7 +12732,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C56" s="42" t="s">
         <v>88</v>
       </c>
@@ -12684,7 +12740,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C57" s="42" t="s">
         <v>87</v>
       </c>
@@ -12692,7 +12748,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="3:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C58" s="42" t="s">
         <v>363</v>
       </c>
@@ -12700,7 +12756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C59" s="43" t="s">
         <v>94</v>
       </c>
@@ -12708,14 +12764,14 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="61" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C63" s="223" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="D63" s="223"/>
     </row>
-    <row r="64" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C64" s="39" t="s">
         <v>95</v>
       </c>
@@ -12723,7 +12779,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C65" s="41" t="s">
         <v>334</v>
       </c>
@@ -12731,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C66" s="42" t="s">
         <v>92</v>
       </c>
@@ -12739,7 +12795,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C67" s="42" t="s">
         <v>93</v>
       </c>
@@ -12747,7 +12803,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C68" s="42" t="s">
         <v>364</v>
       </c>
@@ -12755,7 +12811,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C69" s="42" t="s">
         <v>97</v>
       </c>
@@ -12763,7 +12819,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C70" s="42" t="s">
         <v>98</v>
       </c>
@@ -12771,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C71" s="43" t="s">
         <v>99</v>
       </c>
@@ -12779,14 +12835,14 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="73" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C75" s="223" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="D75" s="223"/>
     </row>
-    <row r="76" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C76" s="39" t="s">
         <v>100</v>
       </c>
@@ -12794,7 +12850,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C77" s="41" t="s">
         <v>333</v>
       </c>
@@ -12802,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C78" s="42" t="s">
         <v>54</v>
       </c>
@@ -12810,7 +12866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C79" s="42" t="s">
         <v>101</v>
       </c>
@@ -12818,7 +12874,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C80" s="42" t="s">
         <v>92</v>
       </c>
@@ -12826,7 +12882,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C81" s="42" t="s">
         <v>365</v>
       </c>
@@ -12834,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C82" s="43" t="s">
         <v>102</v>
       </c>
@@ -12842,14 +12898,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C86" s="223" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="D86" s="223"/>
     </row>
-    <row r="87" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C87" s="39" t="s">
         <v>103</v>
       </c>
@@ -12857,7 +12913,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C88" s="41" t="s">
         <v>366</v>
       </c>
@@ -12865,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C89" s="42" t="s">
         <v>89</v>
       </c>
@@ -12873,7 +12929,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C90" s="42" t="s">
         <v>88</v>
       </c>
@@ -12881,7 +12937,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C91" s="42" t="s">
         <v>87</v>
       </c>
@@ -12889,7 +12945,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C92" s="42" t="s">
         <v>97</v>
       </c>
@@ -12897,7 +12953,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C93" s="43" t="s">
         <v>105</v>
       </c>
@@ -12905,14 +12961,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="95" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C97" s="224" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="D97" s="224"/>
     </row>
-    <row r="98" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C98" s="39" t="s">
         <v>439</v>
       </c>
@@ -12920,7 +12976,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C99" s="41" t="s">
         <v>334</v>
       </c>
@@ -12928,7 +12984,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C100" s="42" t="s">
         <v>92</v>
       </c>
@@ -12936,7 +12992,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C101" s="42" t="s">
         <v>96</v>
       </c>
@@ -12944,7 +13000,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C102" s="42" t="s">
         <v>106</v>
       </c>
@@ -12952,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C103" s="42" t="s">
         <v>107</v>
       </c>
@@ -12960,7 +13016,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C104" s="42" t="s">
         <v>108</v>
       </c>
@@ -12968,7 +13024,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="105" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C105" s="43" t="s">
         <v>109</v>
       </c>
@@ -12976,14 +13032,14 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C109" s="223" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="D109" s="223"/>
     </row>
-    <row r="110" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C110" s="39" t="s">
         <v>442</v>
       </c>
@@ -12991,7 +13047,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C111" s="41" t="s">
         <v>334</v>
       </c>
@@ -12999,7 +13055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C112" s="42" t="s">
         <v>92</v>
       </c>
@@ -13007,7 +13063,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="42" t="s">
         <v>93</v>
       </c>
@@ -13015,7 +13071,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="42" t="s">
         <v>110</v>
       </c>
@@ -13024,7 +13080,7 @@
       </c>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="42" t="s">
         <v>111</v>
       </c>
@@ -13032,7 +13088,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C116" s="43" t="s">
         <v>105</v>
       </c>
@@ -13055,43 +13111,43 @@
     <mergeCell ref="C40:D40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Rating Algorithm'!A26" display="Rating Algorithm'!A26"/>
+    <hyperlink ref="F1" location="'Rating Algorithm'!A26" display="Rating Algorithm'!A26" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="44" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="225" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="D6" s="225"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="161" t="s">
         <v>428</v>
       </c>
@@ -13100,7 +13156,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C8" s="163" t="s">
         <v>79</v>
       </c>
@@ -13109,7 +13165,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="166">
         <v>1</v>
       </c>
@@ -13117,35 +13173,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="166">
         <v>9</v>
       </c>
       <c r="D10" s="168" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="166">
         <v>12</v>
       </c>
       <c r="D11" s="168" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="165" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D12" s="172">
         <v>1</v>
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E14" s="15"/>
     </row>
   </sheetData>
@@ -13157,60 +13213,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="30" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="44" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="44"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="F4" s="18"/>
       <c r="G4" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="151"/>
       <c r="C5" s="221" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D5" s="226"/>
       <c r="E5" s="222"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
       <c r="D6" s="151"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="224" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="D8" s="223"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="39" t="s">
         <v>127</v>
       </c>
@@ -13218,7 +13276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
         <v>119</v>
       </c>
@@ -13226,7 +13284,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="42" t="s">
         <v>120</v>
       </c>
@@ -13234,7 +13292,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" s="42" t="s">
         <v>121</v>
       </c>
@@ -13242,7 +13300,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="43" t="s">
         <v>122</v>
       </c>
@@ -13250,14 +13308,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="227" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="D17" s="228"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="39" t="s">
         <v>128</v>
       </c>
@@ -13267,7 +13325,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19" s="41" t="s">
         <v>336</v>
       </c>
@@ -13275,7 +13333,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" s="42" t="s">
         <v>120</v>
       </c>
@@ -13283,7 +13341,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C21" s="42" t="s">
         <v>121</v>
       </c>
@@ -13291,7 +13349,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="43" t="s">
         <v>122</v>
       </c>
@@ -13299,20 +13357,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="15"/>
       <c r="C26" s="232" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="D26" s="233"/>
       <c r="E26" s="234"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="18" collapsed="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="15"/>
       <c r="C27" s="28" t="s">
         <v>129</v>
@@ -13325,7 +13383,7 @@
       </c>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15"/>
       <c r="C28" s="41" t="s">
         <v>126</v>
@@ -13338,7 +13396,7 @@
       </c>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="15"/>
       <c r="C29" s="42" t="s">
         <v>119</v>
@@ -13349,7 +13407,7 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="15"/>
       <c r="C30" s="42" t="s">
         <v>120</v>
@@ -13360,7 +13418,7 @@
       </c>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15"/>
       <c r="C31" s="42" t="s">
         <v>121</v>
@@ -13371,7 +13429,7 @@
       </c>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15"/>
       <c r="C32" s="42" t="s">
         <v>122</v>
@@ -13382,7 +13440,7 @@
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="15"/>
       <c r="C33" s="43"/>
       <c r="D33" s="36" t="s">
@@ -13393,18 +13451,18 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C37" s="223" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="D37" s="223"/>
     </row>
-    <row r="38" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C38" s="39" t="s">
         <v>446</v>
       </c>
@@ -13412,7 +13470,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C39" s="41" t="s">
         <v>336</v>
       </c>
@@ -13420,7 +13478,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C40" s="42" t="s">
         <v>120</v>
       </c>
@@ -13429,7 +13487,7 @@
       </c>
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C41" s="42" t="s">
         <v>121</v>
       </c>
@@ -13437,7 +13495,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C42" s="43" t="s">
         <v>122</v>
       </c>
@@ -13455,7 +13513,7 @@
     <mergeCell ref="C26:E26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" location="'Rating Algorithm'!A54" display="Rating Algorithm'!A54"/>
+    <hyperlink ref="G4" location="'Rating Algorithm'!A54" display="Rating Algorithm'!A54" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
@@ -13466,35 +13524,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="44" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:5" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="15" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="219" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="D6" s="220"/>
       <c r="E6" s="217"/>
     </row>
-    <row r="7" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" s="15" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="128" t="s">
         <v>125</v>
       </c>
@@ -13505,7 +13563,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="136" t="s">
         <v>444</v>
       </c>
@@ -13516,7 +13574,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="164">
         <v>1500</v>
       </c>
@@ -13527,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="164">
         <v>-5000</v>
       </c>
@@ -13535,10 +13593,10 @@
         <v>2000</v>
       </c>
       <c r="E10" s="168" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="164">
         <v>0</v>
       </c>
@@ -13546,10 +13604,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="168" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" s="15" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="139">
         <v>10</v>
       </c>
@@ -13569,67 +13627,69 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:E43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="G1" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C3" s="44"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="15" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="C4" s="152"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="15" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="151"/>
       <c r="C5" s="221" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D5" s="226"/>
       <c r="E5" s="222"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="151"/>
       <c r="C6" s="151"/>
       <c r="D6" s="151"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="227" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="D8" s="228"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="39" t="s">
         <v>156</v>
       </c>
@@ -13637,7 +13697,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
         <v>147</v>
       </c>
@@ -13645,7 +13705,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="43" t="s">
         <v>146</v>
       </c>
@@ -13654,20 +13714,20 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="224" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="D15" s="224"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="39" t="s">
         <v>157</v>
       </c>
@@ -13675,7 +13735,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C17" s="41" t="s">
         <v>147</v>
       </c>
@@ -13684,7 +13744,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="43" t="s">
         <v>146</v>
       </c>
@@ -13693,23 +13753,23 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="224" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="D22" s="224"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C23" s="39" t="s">
         <v>158</v>
       </c>
@@ -13718,7 +13778,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C24" s="41" t="s">
         <v>147</v>
       </c>
@@ -13726,7 +13786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="43" t="s">
         <v>146</v>
       </c>
@@ -13734,14 +13794,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="224" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="D29" s="224"/>
     </row>
-    <row r="30" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:11" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="39" t="s">
         <v>159</v>
       </c>
@@ -13749,7 +13809,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C31" s="41" t="s">
         <v>147</v>
       </c>
@@ -13757,7 +13817,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="43" t="s">
         <v>146</v>
       </c>
@@ -13765,14 +13825,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" s="224" t="s">
-        <v>471</v>
+        <v>689</v>
       </c>
       <c r="D36" s="224"/>
     </row>
-    <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C37" s="39" t="s">
         <v>160</v>
       </c>
@@ -13780,7 +13840,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C38" s="41" t="s">
         <v>147</v>
       </c>
@@ -13788,7 +13848,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C39" s="43" t="s">
         <v>146</v>
       </c>
@@ -13796,21 +13856,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="15"/>
       <c r="C43" s="239" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="D43" s="240"/>
       <c r="E43" s="241"/>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="2:10" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="15"/>
       <c r="C44" s="39" t="s">
         <v>166</v>
@@ -13823,21 +13883,21 @@
       </c>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="41" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D45" s="236" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E45" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B46" s="15"/>
       <c r="C46" s="42" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D46" s="237"/>
       <c r="E46" s="34">
@@ -13845,10 +13905,10 @@
       </c>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B47" s="15"/>
       <c r="C47" s="42" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D47" s="238"/>
       <c r="E47" s="34">
@@ -13856,10 +13916,10 @@
       </c>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15"/>
       <c r="C48" s="42" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="34">
@@ -13867,10 +13927,10 @@
       </c>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="15"/>
       <c r="C49" s="43" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="37">
@@ -13878,44 +13938,44 @@
       </c>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15"/>
       <c r="C50" s="14"/>
       <c r="D50" s="13"/>
       <c r="E50" s="12"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15"/>
       <c r="C51" s="235"/>
       <c r="D51" s="235"/>
       <c r="E51" s="235"/>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C54" s="2"/>
       <c r="I54" s="112"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C58" s="2"/>
     </row>
   </sheetData>
@@ -13931,7 +13991,7 @@
     <mergeCell ref="C43:E43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G1" location="'Rating Algorithm'!A73" display="Rating Algorithm'!A73"/>
+    <hyperlink ref="G1" location="'Rating Algorithm'!A73" display="Rating Algorithm'!A73" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13939,41 +13999,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B3:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="44" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="225" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="D6" s="225"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" s="15" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="161" t="s">
         <v>46</v>
       </c>
@@ -13981,7 +14041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="163" t="s">
         <v>156</v>
       </c>
@@ -13989,15 +14049,15 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="166" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="173" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="15" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="165" t="s">
         <v>146</v>
       </c>
@@ -14005,23 +14065,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="C14" s="219" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="D14" s="220"/>
       <c r="E14" s="217"/>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="15"/>
       <c r="C15" s="128" t="s">
         <v>37</v>
@@ -14033,7 +14093,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="136" t="s">
         <v>170</v>
@@ -14045,10 +14105,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="15"/>
       <c r="C17" s="164" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D17" s="174">
         <v>1500</v>
@@ -14057,10 +14117,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="15"/>
       <c r="C18" s="164" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D18" s="167">
         <v>100</v>
@@ -14069,10 +14129,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="15"/>
       <c r="C19" s="164" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D19" s="174">
         <v>2000</v>
@@ -14081,10 +14141,10 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="15"/>
       <c r="C20" s="139" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D20" s="143">
         <v>600</v>
@@ -14103,61 +14163,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15" collapsed="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="15" collapsed="1"/>
+    <col min="3" max="3" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="H1" s="16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16"/>
       <c r="B3" s="44" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C3" s="44"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="15" customFormat="1" ht="15.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="C5" s="186" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D5" s="242"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="224" t="s">
-        <v>662</v>
+        <v>691</v>
       </c>
       <c r="D8" s="224"/>
       <c r="E8" s="15"/>
@@ -14165,7 +14227,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="39" t="s">
         <v>454</v>
       </c>
@@ -14177,7 +14239,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
         <v>147</v>
       </c>
@@ -14189,7 +14251,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="43" t="s">
         <v>146</v>
       </c>
@@ -14201,7 +14263,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -14209,8 +14271,8 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -14218,9 +14280,9 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="224" t="s">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="D15" s="224"/>
       <c r="E15" s="15"/>
@@ -14228,7 +14290,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="39" t="s">
         <v>169</v>
       </c>
@@ -14240,7 +14302,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C17" s="41" t="s">
         <v>147</v>
       </c>
@@ -14252,7 +14314,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="43" t="s">
         <v>146</v>
       </c>
@@ -14264,7 +14326,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -14272,8 +14334,8 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="3:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -14281,9 +14343,9 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="202" t="s">
-        <v>664</v>
+        <v>693</v>
       </c>
       <c r="D22" s="203"/>
       <c r="E22" s="204"/>
@@ -14291,7 +14353,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C23" s="39" t="s">
         <v>457</v>
       </c>
@@ -14305,9 +14367,9 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C24" s="41" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D24" s="246">
         <v>1</v>
@@ -14317,7 +14379,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="43"/>
       <c r="D25" s="95">
         <v>1</v>
@@ -14327,35 +14389,35 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="3:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:8" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="202" t="s">
-        <v>665</v>
+        <v>694</v>
       </c>
       <c r="D29" s="203"/>
       <c r="E29" s="203"/>
       <c r="F29" s="204"/>
     </row>
-    <row r="30" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="39" t="s">
         <v>458</v>
       </c>
       <c r="D30" s="93" t="s">
+        <v>534</v>
+      </c>
+      <c r="E30" s="113" t="s">
+        <v>536</v>
+      </c>
+      <c r="F30" s="94" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C31" s="41" t="s">
         <v>537</v>
-      </c>
-      <c r="E30" s="113" t="s">
-        <v>539</v>
-      </c>
-      <c r="F30" s="94" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="41" t="s">
-        <v>540</v>
       </c>
       <c r="D31" s="25">
         <v>0</v>
@@ -14367,7 +14429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C32" s="43"/>
       <c r="D32" s="243">
         <v>1</v>
@@ -14375,34 +14437,34 @@
       <c r="E32" s="244"/>
       <c r="F32" s="245"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" s="2"/>
     </row>
   </sheetData>
@@ -14416,7 +14478,7 @@
     <mergeCell ref="D24:E24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H1" location="'Rating Algorithm'!A88" display="Rating Algorithm'!A88"/>
+    <hyperlink ref="H1" location="'Rating Algorithm'!A88" display="Rating Algorithm'!A88" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
